--- a/Lab/Lab5/Excel Aed.xlsx
+++ b/Lab/Lab5/Excel Aed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodsc\OneDrive - Universidade de Lisboa\2º ano\AED\AED\Lab\Lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7F63D5-D615-4705-B986-06FB28C61826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B93258-12D2-4A36-BE0A-C2DB5C310264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{DCDE349D-C01C-41EE-9369-F25CCD379FB4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCDE349D-C01C-41EE-9369-F25CCD379FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>OP</t>
   </si>
@@ -122,7 +122,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -135,14 +135,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Quick</a:t>
+              <a:rPr lang="pt-PT" u="sng"/>
+              <a:t>Insertion</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:rPr lang="pt-PT" u="sng" baseline="0"/>
               <a:t> Sort</a:t>
             </a:r>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="pt-PT" u="sng"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -159,7 +159,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -264,46 +264,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>43</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>212</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>458</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>937</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1006</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1721</c:v>
+                  <c:v>773</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3430</c:v>
+                  <c:v>773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,46 +315,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>1305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>646</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>498</c:v>
+                  <c:v>23304</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>774</c:v>
+                  <c:v>214677</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2488</c:v>
+                  <c:v>116358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2622</c:v>
+                  <c:v>15237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3778</c:v>
+                  <c:v>2136</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5725</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9962</c:v>
+                  <c:v>49374</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12589</c:v>
+                  <c:v>11940</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19874</c:v>
+                  <c:v>439008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19999</c:v>
+                  <c:v>437838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,7 +588,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>Insertion sort</a:t>
+              <a:t>Quick</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>sort</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -704,6 +712,21 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Folha1!$B$20:$B$33</c:f>
@@ -711,46 +734,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>43</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>46</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>212</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>304</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>458</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>937</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1006</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1721</c:v>
+                  <c:v>773</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3430</c:v>
+                  <c:v>773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,46 +785,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2175</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1755</c:v>
+                  <c:v>3778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3560</c:v>
+                  <c:v>12589</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19900</c:v>
+                  <c:v>9962</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25395</c:v>
+                  <c:v>2622</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38840</c:v>
+                  <c:v>774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82290</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>193930</c:v>
+                  <c:v>5725</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>357795</c:v>
+                  <c:v>2488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>731680</c:v>
+                  <c:v>19874</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>729730</c:v>
+                  <c:v>19999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,6 +1023,427 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3896325459317585E-2"/>
+                  <c:y val="-0.10464858559346749"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$O$2:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$Q$2:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>15.023255813953488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.228571428571428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.872928176795579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.163147792706333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.609254498714652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.138686131386862</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.60377358490566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.104247104247104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.286821705426355</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25.710219922380336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.871927554980594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-010F-4A10-BE55-4F9E4D33342E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="750444032"/>
+        <c:axId val="750430720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="750444032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750430720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="750430720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750444032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1080,6 +1524,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1597,6 +2081,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2181,6 +3181,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD3697E-0F6E-42AF-A06B-19C6F26FADF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2486,245 +3522,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CEFFB8-ADD6-4285-8B55-8929F97AE3E4}">
-  <dimension ref="B1:N33"/>
+  <dimension ref="B1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>1305</v>
+      </c>
+      <c r="O2">
+        <v>43</v>
+      </c>
+      <c r="P2">
+        <v>646</v>
+      </c>
+      <c r="Q2">
+        <f>P2/O2</f>
+        <v>15.023255813953488</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>46</v>
       </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q15" si="0">P3/O3</f>
+        <v>9.1999999999999993</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>1053</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+      <c r="P4">
+        <v>498</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>14.228571428571428</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
         <v>67</v>
       </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>8.375</v>
+      </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B5">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>181</v>
+      </c>
+      <c r="C6">
+        <v>23304</v>
+      </c>
+      <c r="O6">
+        <v>181</v>
+      </c>
+      <c r="P6">
+        <v>3778</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>20.872928176795579</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>521</v>
+      </c>
+      <c r="C7">
+        <v>214677</v>
+      </c>
+      <c r="O7">
+        <v>521</v>
+      </c>
+      <c r="P7">
+        <v>12589</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>24.163147792706333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>389</v>
+      </c>
+      <c r="C8">
+        <v>116358</v>
+      </c>
+      <c r="O8">
+        <v>389</v>
+      </c>
+      <c r="P8">
+        <v>9962</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>25.609254498714652</v>
+      </c>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>137</v>
+      </c>
+      <c r="C9">
+        <v>15237</v>
+      </c>
+      <c r="O9">
+        <v>137</v>
+      </c>
+      <c r="P9">
+        <v>2622</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>19.138686131386862</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>2136</v>
+      </c>
+      <c r="O10">
+        <v>53</v>
+      </c>
+      <c r="P10">
+        <v>774</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>14.60377358490566</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>21</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>259</v>
+      </c>
+      <c r="C12">
+        <v>49374</v>
+      </c>
+      <c r="O12">
+        <v>259</v>
+      </c>
+      <c r="P12">
+        <v>5725</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>22.104247104247104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>129</v>
+      </c>
+      <c r="C13">
+        <v>11940</v>
+      </c>
+      <c r="O13">
+        <v>129</v>
+      </c>
+      <c r="P13">
+        <v>2488</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>19.286821705426355</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>773</v>
+      </c>
+      <c r="C14">
+        <v>439008</v>
+      </c>
+      <c r="O14">
+        <v>773</v>
+      </c>
+      <c r="P14">
+        <v>19874</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>25.710219922380336</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>773</v>
+      </c>
+      <c r="C15">
+        <v>437838</v>
+      </c>
+      <c r="O15">
+        <v>773</v>
+      </c>
+      <c r="P15">
+        <v>19999</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>25.871927554980594</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>43</v>
       </c>
-      <c r="C5">
+      <c r="C20">
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B6">
-        <v>46</v>
-      </c>
-      <c r="C6">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B7">
-        <v>79</v>
-      </c>
-      <c r="C7">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B8">
-        <v>197</v>
-      </c>
-      <c r="C8">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B9">
-        <v>212</v>
-      </c>
-      <c r="C9">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B10">
-        <v>304</v>
-      </c>
-      <c r="C10">
-        <v>3778</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B11">
-        <v>458</v>
-      </c>
-      <c r="C11">
-        <v>5725</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B12">
-        <v>937</v>
-      </c>
-      <c r="C12">
-        <v>9962</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B13">
-        <v>1006</v>
-      </c>
-      <c r="C13">
-        <v>12589</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B14">
-        <v>1721</v>
-      </c>
-      <c r="C14">
-        <v>19874</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.5">
-      <c r="B15">
-        <v>3430</v>
-      </c>
-      <c r="C15">
-        <v>19999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>8</v>
       </c>
-      <c r="C22">
-        <v>70</v>
+      <c r="C23">
+        <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B23">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>2175</v>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>181</v>
+      </c>
+      <c r="C24">
+        <v>3778</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B24">
-        <v>46</v>
-      </c>
-      <c r="C24">
-        <v>1755</v>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>521</v>
+      </c>
+      <c r="C25">
+        <v>12589</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B25">
-        <v>79</v>
-      </c>
-      <c r="C25">
-        <v>3560</v>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>389</v>
+      </c>
+      <c r="C26">
+        <v>9962</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B26">
-        <v>197</v>
-      </c>
-      <c r="C26">
-        <v>19900</v>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>137</v>
+      </c>
+      <c r="C27">
+        <v>2622</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B27">
-        <v>212</v>
-      </c>
-      <c r="C27">
-        <v>25395</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>304</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>38840</v>
+        <v>774</v>
       </c>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>458</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>82290</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>937</v>
+        <v>259</v>
       </c>
       <c r="C30">
-        <v>193930</v>
+        <v>5725</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>1006</v>
+        <v>129</v>
       </c>
       <c r="C31">
-        <v>357795</v>
+        <v>2488</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>1721</v>
+        <v>773</v>
       </c>
       <c r="C32">
-        <v>731680</v>
+        <v>19874</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>3430</v>
+        <v>773</v>
       </c>
       <c r="C33">
-        <v>729730</v>
+        <v>19999</v>
       </c>
     </row>
   </sheetData>
